--- a/absa_aspect_sentiment.xlsx
+++ b/absa_aspect_sentiment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,16 +511,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>team</t>
+          <t>help</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>team_collaboration</t>
+          <t>mentorship</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -529,11 +529,11 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>242</v>
+        <v>146</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>course</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -547,16 +547,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>324</v>
+        <v>163</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>supervisor</t>
+          <t>support</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>mentorship</t>
+          <t>technical_support</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -565,16 +565,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>324</v>
+        <v>185</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>team</t>
+          <t>support</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>team_collaboration</t>
+          <t>technical_support</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -583,16 +583,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>337</v>
+        <v>187</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>team</t>
+          <t>support</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>team_collaboration</t>
+          <t>technical_support</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -601,16 +601,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>338</v>
+        <v>188</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>supervisor</t>
+          <t>team</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>mentorship</t>
+          <t>team_collaboration</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -619,11 +619,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>340</v>
+        <v>188</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>supervisor</t>
+          <t>help</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -637,16 +637,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>404</v>
+        <v>211</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>team</t>
+          <t>help</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>team_collaboration</t>
+          <t>mentorship</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -655,16 +655,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>411</v>
+        <v>211</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>event</t>
+          <t>advice</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>professional_networking</t>
+          <t>mentorship</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -673,16 +673,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>429</v>
+        <v>234</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>team_collaboration</t>
+          <t>learning_opportunities</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -691,16 +691,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>518</v>
+        <v>234</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>team</t>
+          <t>session</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>team_collaboration</t>
+          <t>learning_opportunities</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -709,16 +709,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>524</v>
+        <v>242</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>team</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>team_collaboration</t>
+          <t>learning_opportunities</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -727,16 +727,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>557</v>
+        <v>250</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>mentor</t>
+          <t>support</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>mentorship</t>
+          <t>technical_support</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -745,16 +745,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>610</v>
+        <v>257</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>team</t>
+          <t>support</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>team_collaboration</t>
+          <t>technical_support</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -763,16 +763,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>685</v>
+        <v>264</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>team</t>
+          <t>help</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>team_collaboration</t>
+          <t>mentorship</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -781,7 +781,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>847</v>
+        <v>324</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -799,55 +799,955 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>849</v>
+        <v>324</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>supervisor</t>
+          <t>team</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>mentorship</t>
+          <t>team_collaboration</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>851</v>
+        <v>332</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>supervisor</t>
+          <t>support</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>mentorship</t>
+          <t>technical_support</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
+        <v>337</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>team</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>team_collaboration</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>338</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>supervisor</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>mentorship</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>338</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>session</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>learning_opportunities</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>338</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>session</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>learning_opportunities</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>340</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>supervisor</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>mentorship</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>340</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>mentorship</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>348</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>learning_opportunities</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>358</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>learning_opportunities</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>359</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>technical_support</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>359</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>project</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>workload</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>404</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>team</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>team_collaboration</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>405</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>learning_opportunities</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>411</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>professional_networking</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>422</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>technical_support</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>423</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>technical_support</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>429</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>meeting</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>team_collaboration</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>443</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>technical_support</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>487</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>mentorship</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>518</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>team</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>team_collaboration</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>524</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>team</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>team_collaboration</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>557</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>mentor</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>mentorship</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>610</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>team</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>team_collaboration</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>611</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>mentorship</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>612</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>mentorship</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>612</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>knowledge</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>learning_opportunities</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>683</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>learning_opportunities</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>685</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>team</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>team_collaboration</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>685</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>mentorship</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>722</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>learning_opportunities</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>832</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>847</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>supervisor</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>mentorship</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>847</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>software</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>848</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>technical_support</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>849</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>supervisor</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>mentorship</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>849</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>technical_support</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>851</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>supervisor</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>mentorship</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
         <v>867</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>team</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>team_collaboration</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>968</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>mentorship</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>969</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>mentorship</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>971</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>learning_opportunities</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>997</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>learning_opportunities</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>learning_opportunities</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>learning_opportunities</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>mentorship</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>learning_opportunities</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>software</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1039</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>learning_opportunities</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>technical_support</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>learning_opportunities</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>mentorship</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>guide</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>mentorship</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
         <v>1</v>
       </c>
     </row>
